--- a/paper-case-studies/case-3/data/return_calibrations.xlsx
+++ b/paper-case-studies/case-3/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.004105376846097051</v>
+        <v>0.006723542539674326</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.07898817841423227</v>
+        <v>-0.08282528034264003</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.353521011482407</v>
+        <v>1.34925683233504</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.02052115074596907</v>
+        <v>0.02483832353972112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.01509938526654823</v>
+        <v>0.01375413953868074</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.379653801527025</v>
+        <v>1.37027635049068</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.08066323695490685</v>
+        <v>0.08067685323095711</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.276795127221192</v>
+        <v>-0.2758565092626783</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.324415593620945</v>
+        <v>1.325105173521601</v>
       </c>
     </row>
     <row r="8" spans="1:2">
